--- a/Users Loads14.xlsx
+++ b/Users Loads14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.146631819113183</v>
+        <v>3.707140224301534</v>
       </c>
       <c r="C2" t="n">
-        <v>5.039358569308777</v>
+        <v>3.178037295964893</v>
       </c>
       <c r="D2" t="n">
-        <v>0.217073607400505</v>
+        <v>0.3141922284839216</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.275833516229245</v>
+        <v>5.769324542341939</v>
       </c>
       <c r="C3" t="n">
-        <v>2.139745860858729</v>
+        <v>3.514645759822572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1757459880942718</v>
+        <v>0.228229366786155</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.25936038673619</v>
+        <v>7.62411047044329</v>
       </c>
       <c r="C4" t="n">
-        <v>10.10373923327808</v>
+        <v>9.98737337772222</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3600981231082985</v>
+        <v>0.3564254466116638</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.8860845285712</v>
+        <v>9.43712470116929</v>
       </c>
       <c r="C5" t="n">
-        <v>3.973033211787691</v>
+        <v>4.526633084058997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2433786380489952</v>
+        <v>0.1698233758727088</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.66235408137412</v>
+        <v>9.789298309195297</v>
       </c>
       <c r="C6" t="n">
-        <v>8.580942860686502</v>
+        <v>10.45814216566142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4000412006580937</v>
+        <v>0.3797137767678765</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.05067165327998</v>
+        <v>13.34810213934554</v>
       </c>
       <c r="C7" t="n">
-        <v>4.264604402026303</v>
+        <v>2.082284836937426</v>
       </c>
       <c r="D7" t="n">
-        <v>0.741927623294146</v>
+        <v>0.2786643713207221</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.84798623447978</v>
+        <v>13.69850290193687</v>
       </c>
       <c r="C8" t="n">
-        <v>10.37603569441962</v>
+        <v>8.222285311106274</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4428864386078081</v>
+        <v>0.4568447624185565</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.44445900491677</v>
+        <v>15.35732177268107</v>
       </c>
       <c r="C9" t="n">
-        <v>5.609355209218334</v>
+        <v>8.222141808501618</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4194246663862127</v>
+        <v>0.2768102617653607</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.85315516732438</v>
+        <v>20.00453855248269</v>
       </c>
       <c r="C10" t="n">
-        <v>10.15991137365081</v>
+        <v>9.480297720733683</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3917611469327069</v>
+        <v>0.334879040270145</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36.26916148276806</v>
+        <v>26.46406827117856</v>
       </c>
       <c r="C11" t="n">
-        <v>7.214503475101449</v>
+        <v>6.263165106537548</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2786312919306455</v>
+        <v>0.4644998202591301</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>36.40513988102794</v>
+        <v>28.68562946610409</v>
       </c>
       <c r="C12" t="n">
-        <v>11.72055043796136</v>
+        <v>6.506682668832935</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2644995346625922</v>
+        <v>0.2192083281815637</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>37.62726922039582</v>
+        <v>29.78852021004996</v>
       </c>
       <c r="C13" t="n">
-        <v>8.556384536249547</v>
+        <v>8.691168402951606</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5351265100704425</v>
+        <v>0.4319581193448346</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>38.03129855719345</v>
+        <v>30.6638744015881</v>
       </c>
       <c r="C14" t="n">
-        <v>9.316423701982593</v>
+        <v>2.854514251357171</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4001939879971669</v>
+        <v>0.08354427686892525</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39.45318419222669</v>
+        <v>32.80963041655549</v>
       </c>
       <c r="C15" t="n">
-        <v>4.9630379528396</v>
+        <v>4.162630145626276</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3147745176520008</v>
+        <v>0.5161727024809879</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>39.92147410041539</v>
+        <v>36.95127302187949</v>
       </c>
       <c r="C16" t="n">
-        <v>6.633872402212134</v>
+        <v>13.96310513455267</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5060516806612249</v>
+        <v>0.3695092066035308</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45.17123806373267</v>
+        <v>39.8950950767116</v>
       </c>
       <c r="C17" t="n">
-        <v>5.31591342143181</v>
+        <v>3.968872534344617</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2750968333952314</v>
+        <v>0.2875625288617086</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.18194110102177</v>
+        <v>45.78756001447373</v>
       </c>
       <c r="C18" t="n">
-        <v>4.898082806414537</v>
+        <v>7.151446291230044</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3735256341726401</v>
+        <v>0.2463038652876009</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>46.79059366729304</v>
+        <v>46.15947409014645</v>
       </c>
       <c r="C19" t="n">
-        <v>4.824126822675485</v>
+        <v>9.582716971428685</v>
       </c>
       <c r="D19" t="n">
-        <v>0.319738117351837</v>
+        <v>0.254337097059642</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>51.12180067387416</v>
+        <v>47.21662386988176</v>
       </c>
       <c r="C20" t="n">
-        <v>8.032280012790714</v>
+        <v>3.892015393812848</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2844297691569629</v>
+        <v>0.1596919743314569</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>51.53210216498408</v>
+        <v>47.47509989295278</v>
       </c>
       <c r="C21" t="n">
-        <v>7.986120052607796</v>
+        <v>5.9257383234276</v>
       </c>
       <c r="D21" t="n">
-        <v>0.257340971301886</v>
+        <v>0.2068762850183046</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>52.80305936320828</v>
+        <v>48.75873895281444</v>
       </c>
       <c r="C22" t="n">
-        <v>7.36357981540647</v>
+        <v>5.391650038909797</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5108372221040215</v>
+        <v>0.445702046923163</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>54.76285871607123</v>
+        <v>53.51416894627793</v>
       </c>
       <c r="C23" t="n">
-        <v>9.880337828797177</v>
+        <v>3.053275970643026</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1373588777784933</v>
+        <v>0.1874779464143486</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>55.77141858921684</v>
+        <v>57.44856667250019</v>
       </c>
       <c r="C24" t="n">
-        <v>8.775201203040226</v>
+        <v>4.357603152176637</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2508928417689322</v>
+        <v>0.06687991237364961</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>58.91101061234036</v>
+        <v>59.10289925521387</v>
       </c>
       <c r="C25" t="n">
-        <v>3.926926049709386</v>
+        <v>8.191369814116905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.160838315422511</v>
+        <v>0.3513996493502551</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>60.20938661478142</v>
+        <v>64.45474118187454</v>
       </c>
       <c r="C26" t="n">
-        <v>3.54306431102202</v>
+        <v>8.088874663895576</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2717960101747243</v>
+        <v>0.4214097781080564</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>60.25642623421065</v>
+        <v>65.60072671935656</v>
       </c>
       <c r="C27" t="n">
-        <v>8.20277276569665</v>
+        <v>12.31845570030995</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4329692522052951</v>
+        <v>0.4874573600337201</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>63.68135430535312</v>
+        <v>75.20973427110188</v>
       </c>
       <c r="C28" t="n">
-        <v>4.2113189279658</v>
+        <v>8.141894827849525</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2782723726393127</v>
+        <v>0.3164131369174463</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>67.19706583068327</v>
+        <v>84.99821336541275</v>
       </c>
       <c r="C29" t="n">
-        <v>2.698826753135934</v>
+        <v>11.82686273112039</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1871678191884879</v>
+        <v>0.6022214615835444</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.45576385209615</v>
+        <v>85.48502343959228</v>
       </c>
       <c r="C30" t="n">
-        <v>3.273916300339168</v>
+        <v>5.876111935471082</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2048415441442169</v>
+        <v>0.3209055237613112</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68.66002556836129</v>
+        <v>85.64338473698835</v>
       </c>
       <c r="C31" t="n">
-        <v>8.599267266873344</v>
+        <v>10.11446858351495</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3674738797486757</v>
+        <v>0.4422328438256813</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>73.29508745864064</v>
+        <v>87.69507773187695</v>
       </c>
       <c r="C32" t="n">
-        <v>4.363012178845519</v>
+        <v>6.634584531426813</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2584352995919196</v>
+        <v>0.1709929670522698</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>75.25588657758783</v>
+        <v>87.90016609094107</v>
       </c>
       <c r="C33" t="n">
-        <v>9.635631378180944</v>
+        <v>7.97895600623199</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2090686793917786</v>
+        <v>0.2275441664472891</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>75.35474681173153</v>
+        <v>88.15776302861563</v>
       </c>
       <c r="C34" t="n">
-        <v>6.112956901120215</v>
+        <v>9.138825674050988</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09874678934368716</v>
+        <v>0.3599001097425593</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>78.29013010163605</v>
+        <v>90.84167439540904</v>
       </c>
       <c r="C35" t="n">
-        <v>4.631001972384079</v>
+        <v>7.705029194634697</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2303636544198518</v>
+        <v>0.399091601216635</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>79.36429538447076</v>
+        <v>94.04380190590184</v>
       </c>
       <c r="C36" t="n">
-        <v>3.410901987628121</v>
+        <v>4.278583697672139</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5793688346181969</v>
+        <v>0.3781578102582177</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>79.88004808359486</v>
+        <v>94.44914731532552</v>
       </c>
       <c r="C37" t="n">
-        <v>10.39863715902772</v>
+        <v>8.188989842533836</v>
       </c>
       <c r="D37" t="n">
-        <v>0.247360998678441</v>
+        <v>0.371252639607788</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>80.09181205508528</v>
+        <v>97.67280456037174</v>
       </c>
       <c r="C38" t="n">
-        <v>8.497547634230152</v>
+        <v>5.334572805196472</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4396693538421493</v>
+        <v>0.4935353404420858</v>
       </c>
     </row>
     <row r="39">
@@ -973,83 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>85.14719152565115</v>
+        <v>98.46310987495943</v>
       </c>
       <c r="C39" t="n">
-        <v>2.468488744811551</v>
+        <v>7.782947630754367</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2578043617158979</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>87.71756687748015</v>
-      </c>
-      <c r="C40" t="n">
-        <v>6.961246744612298</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.3357696162799869</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>87.72089508805519</v>
-      </c>
-      <c r="C41" t="n">
-        <v>5.519280633141577</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.2885181410212743</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>87.83782268642993</v>
-      </c>
-      <c r="C42" t="n">
-        <v>10.86706367051791</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.3864608242160239</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>89.6932240885815</v>
-      </c>
-      <c r="C43" t="n">
-        <v>9.026609638139336</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.1812673311655936</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>89.9471272384275</v>
-      </c>
-      <c r="C44" t="n">
-        <v>5.658833931214409</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4818554900949983</v>
+        <v>0.4010391167315959</v>
       </c>
     </row>
   </sheetData>
